--- a/planilha_destruicao.xlsx
+++ b/planilha_destruicao.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
@@ -4623,7 +4623,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
@@ -4854,7 +4854,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
@@ -4953,7 +4953,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
@@ -5019,7 +5019,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
@@ -5984,7 +5984,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -6215,7 +6215,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
@@ -6791,7 +6791,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
@@ -6890,7 +6890,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -7220,7 +7220,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -7253,7 +7253,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
@@ -7286,7 +7286,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
@@ -7649,7 +7649,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
@@ -7789,7 +7789,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
@@ -8053,7 +8053,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
@@ -8185,7 +8185,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
@@ -8383,7 +8383,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -8548,7 +8548,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
@@ -8581,7 +8581,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
@@ -8713,7 +8713,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
@@ -8779,7 +8779,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
@@ -8878,7 +8878,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
@@ -8911,7 +8911,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
@@ -9043,7 +9043,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
@@ -9183,7 +9183,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
@@ -9249,7 +9249,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
@@ -9315,7 +9315,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
@@ -9537,7 +9537,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
@@ -9603,7 +9603,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
@@ -9669,7 +9669,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
@@ -9735,7 +9735,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
@@ -9768,7 +9768,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
@@ -9834,7 +9834,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
@@ -9900,7 +9900,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -9966,7 +9966,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
@@ -9999,7 +9999,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -10065,7 +10065,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
@@ -10098,7 +10098,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -10131,7 +10131,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
@@ -10164,7 +10164,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -10263,7 +10263,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
@@ -10329,7 +10329,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
@@ -10436,7 +10436,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
@@ -10469,7 +10469,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
@@ -10535,7 +10535,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
@@ -10601,7 +10601,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
@@ -10634,7 +10634,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -10667,7 +10667,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
@@ -10733,7 +10733,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
@@ -10766,7 +10766,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
@@ -10799,7 +10799,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
@@ -10865,7 +10865,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -10898,7 +10898,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -10931,7 +10931,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H314" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H315" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="H316" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H317" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
@@ -11169,7 +11169,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
@@ -11202,7 +11202,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
@@ -11334,7 +11334,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
@@ -11400,7 +11400,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
@@ -11433,7 +11433,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
@@ -11466,7 +11466,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
@@ -11499,7 +11499,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
@@ -11647,7 +11647,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
@@ -11680,7 +11680,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
@@ -11713,7 +11713,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
@@ -11779,7 +11779,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
@@ -11812,7 +11812,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -11878,7 +11878,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
@@ -11911,7 +11911,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
@@ -11977,7 +11977,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
@@ -12010,7 +12010,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
@@ -12076,7 +12076,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
@@ -12109,7 +12109,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H351" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
@@ -12348,7 +12348,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
@@ -12381,7 +12381,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
@@ -12414,7 +12414,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr"/>
@@ -12447,7 +12447,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr"/>
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr"/>
@@ -12513,7 +12513,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr"/>
@@ -12579,7 +12579,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr"/>
@@ -12612,7 +12612,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr"/>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr"/>
@@ -12678,7 +12678,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr"/>
@@ -12711,7 +12711,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr"/>
@@ -12744,7 +12744,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr"/>
@@ -12818,7 +12818,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr"/>
@@ -12851,7 +12851,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr"/>
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr"/>
@@ -12917,7 +12917,7 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr"/>
@@ -12950,7 +12950,7 @@
         </is>
       </c>
       <c r="G373" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr"/>
@@ -12983,7 +12983,7 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr"/>
@@ -13049,7 +13049,7 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr"/>
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr"/>
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr"/>
@@ -13148,7 +13148,7 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
@@ -13181,7 +13181,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
@@ -13214,7 +13214,7 @@
         </is>
       </c>
       <c r="G381" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
@@ -13247,7 +13247,7 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
@@ -13280,7 +13280,7 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
@@ -13313,7 +13313,7 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H384" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="H385" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
@@ -13428,7 +13428,7 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
@@ -13494,7 +13494,7 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="G390" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="G391" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
@@ -13593,7 +13593,7 @@
         </is>
       </c>
       <c r="G392" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
@@ -13626,7 +13626,7 @@
         </is>
       </c>
       <c r="G393" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr"/>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr"/>
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr"/>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr"/>
@@ -13758,7 +13758,7 @@
         </is>
       </c>
       <c r="G397" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         </is>
       </c>
       <c r="G398" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr"/>
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr"/>
@@ -13865,7 +13865,7 @@
         </is>
       </c>
       <c r="G400" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr"/>

--- a/planilha_destruicao.xlsx
+++ b/planilha_destruicao.xlsx
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
@@ -4623,7 +4623,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
@@ -6791,7 +6791,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
@@ -7253,7 +7253,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
@@ -7286,7 +7286,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
@@ -7789,7 +7789,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
@@ -8185,7 +8185,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
@@ -8911,7 +8911,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -9043,7 +9043,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
@@ -9315,7 +9315,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
@@ -9834,7 +9834,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
@@ -9900,7 +9900,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -9966,7 +9966,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
@@ -9999,7 +9999,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -10329,7 +10329,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
@@ -10436,7 +10436,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
@@ -10535,7 +10535,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
@@ -10601,7 +10601,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
@@ -10634,7 +10634,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
@@ -11334,7 +11334,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
@@ -11647,7 +11647,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
@@ -11680,7 +11680,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
@@ -11713,7 +11713,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
@@ -11812,7 +11812,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -11911,7 +11911,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
@@ -12249,7 +12249,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
@@ -12348,7 +12348,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
@@ -12381,7 +12381,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
@@ -12414,7 +12414,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr"/>
@@ -12447,7 +12447,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr"/>
@@ -12513,7 +12513,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr"/>
@@ -12579,7 +12579,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr"/>
@@ -12612,7 +12612,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr"/>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr"/>
@@ -12678,7 +12678,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr"/>
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr"/>
@@ -12950,7 +12950,7 @@
         </is>
       </c>
       <c r="G373" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr"/>
@@ -12983,7 +12983,7 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr"/>
@@ -13049,7 +13049,7 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr"/>
@@ -13395,7 +13395,7 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="G390" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="G391" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
@@ -13593,7 +13593,7 @@
         </is>
       </c>
       <c r="G392" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
@@ -13758,7 +13758,7 @@
         </is>
       </c>
       <c r="G397" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr"/>
@@ -13865,7 +13865,7 @@
         </is>
       </c>
       <c r="G400" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr"/>

--- a/planilha_destruicao.xlsx
+++ b/planilha_destruicao.xlsx
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
@@ -4854,7 +4854,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
@@ -6215,7 +6215,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -7220,7 +7220,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
@@ -7649,7 +7649,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
@@ -8053,7 +8053,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
@@ -8383,7 +8383,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -8581,7 +8581,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
@@ -8713,7 +8713,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -8779,7 +8779,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
@@ -8878,7 +8878,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
@@ -9249,7 +9249,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
@@ -9537,7 +9537,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
@@ -9768,7 +9768,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
@@ -10164,7 +10164,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -10263,7 +10263,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
@@ -10667,7 +10667,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
@@ -10766,7 +10766,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
@@ -10799,7 +10799,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
@@ -10865,7 +10865,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -10898,7 +10898,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H315" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="H316" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
@@ -11202,7 +11202,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
@@ -11779,7 +11779,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
@@ -11878,7 +11878,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H351" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
@@ -12744,7 +12744,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr"/>
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr"/>
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr"/>
@@ -13148,7 +13148,7 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
@@ -13181,7 +13181,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
@@ -13214,7 +13214,7 @@
         </is>
       </c>
       <c r="G381" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
@@ -13247,7 +13247,7 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
@@ -13280,7 +13280,7 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
@@ -13626,7 +13626,7 @@
         </is>
       </c>
       <c r="G393" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr"/>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr"/>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr"/>
@@ -13799,7 +13799,7 @@
         </is>
       </c>
       <c r="G398" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr"/>

--- a/planilha_destruicao.xlsx
+++ b/planilha_destruicao.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
@@ -4953,7 +4953,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
@@ -5019,7 +5019,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
@@ -5984,7 +5984,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
@@ -6890,7 +6890,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -8548,7 +8548,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
@@ -9183,7 +9183,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
@@ -9603,7 +9603,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
@@ -9669,7 +9669,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
@@ -9735,7 +9735,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
@@ -10065,7 +10065,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
@@ -10098,7 +10098,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -10131,7 +10131,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
@@ -10469,7 +10469,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
@@ -10733,7 +10733,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
@@ -10931,7 +10931,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H314" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H317" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
@@ -11400,7 +11400,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
@@ -11433,7 +11433,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
@@ -11466,7 +11466,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
@@ -11499,7 +11499,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
@@ -11977,7 +11977,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
@@ -12010,7 +12010,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
@@ -12076,7 +12076,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
@@ -12109,7 +12109,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr"/>
@@ -12711,7 +12711,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr"/>
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr"/>
@@ -12851,7 +12851,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr"/>
@@ -12917,7 +12917,7 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr"/>
@@ -13313,7 +13313,7 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H384" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="H385" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
@@ -13494,7 +13494,7 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr"/>

--- a/planilha_destruicao.xlsx
+++ b/planilha_destruicao.xlsx
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2495,7 +2495,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -2660,7 +2660,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -2957,7 +2957,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
@@ -3023,7 +3023,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
@@ -3419,7 +3419,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
@@ -3559,7 +3559,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
@@ -3625,7 +3625,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
@@ -3757,7 +3757,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
@@ -3930,7 +3930,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
@@ -3963,7 +3963,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
@@ -4458,7 +4458,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
@@ -4623,7 +4623,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
@@ -4854,7 +4854,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
@@ -4953,7 +4953,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
@@ -5019,7 +5019,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
@@ -5118,7 +5118,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
@@ -5217,7 +5217,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
@@ -5456,7 +5456,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
@@ -5687,7 +5687,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
@@ -5720,7 +5720,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
@@ -5819,7 +5819,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
@@ -5885,7 +5885,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
@@ -5918,7 +5918,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
@@ -5984,7 +5984,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
@@ -6017,7 +6017,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
@@ -6083,7 +6083,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -6215,7 +6215,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
@@ -6380,7 +6380,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
@@ -6479,7 +6479,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -6758,7 +6758,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
@@ -6791,7 +6791,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
@@ -6824,7 +6824,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
@@ -6890,7 +6890,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
@@ -6989,7 +6989,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
@@ -7088,7 +7088,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
@@ -7220,7 +7220,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
@@ -7253,7 +7253,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
@@ -7286,7 +7286,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
@@ -7319,7 +7319,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
@@ -7451,7 +7451,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
@@ -7484,7 +7484,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
@@ -7517,7 +7517,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
@@ -7583,7 +7583,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
@@ -7649,7 +7649,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
@@ -7789,7 +7789,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
@@ -7855,7 +7855,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
@@ -7987,7 +7987,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
@@ -8053,7 +8053,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
@@ -8086,7 +8086,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
@@ -8119,7 +8119,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
@@ -8185,7 +8185,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
@@ -8251,7 +8251,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
@@ -8317,7 +8317,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
@@ -8383,7 +8383,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
@@ -8416,7 +8416,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
@@ -8515,7 +8515,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
@@ -8548,7 +8548,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
@@ -8581,7 +8581,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
@@ -8713,7 +8713,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
@@ -8779,7 +8779,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
@@ -8845,7 +8845,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
@@ -8878,7 +8878,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
@@ -8911,7 +8911,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
@@ -8977,7 +8977,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
@@ -9043,7 +9043,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
@@ -9084,7 +9084,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
@@ -9150,7 +9150,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
@@ -9183,7 +9183,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
@@ -9249,7 +9249,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
@@ -9315,7 +9315,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
@@ -9397,7 +9397,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
@@ -9438,7 +9438,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
@@ -9537,7 +9537,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
@@ -9570,7 +9570,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
@@ -9603,7 +9603,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
@@ -9669,7 +9669,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
@@ -9702,7 +9702,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
@@ -9735,7 +9735,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
@@ -9768,7 +9768,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
@@ -9834,7 +9834,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
@@ -9900,7 +9900,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
@@ -9933,7 +9933,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -9966,7 +9966,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
@@ -9999,7 +9999,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -10065,7 +10065,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
@@ -10098,7 +10098,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -10131,7 +10131,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
@@ -10164,7 +10164,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
@@ -10197,7 +10197,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -10263,7 +10263,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
@@ -10329,7 +10329,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
@@ -10403,7 +10403,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
@@ -10436,7 +10436,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
@@ -10469,7 +10469,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
@@ -10535,7 +10535,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
@@ -10601,7 +10601,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
@@ -10634,7 +10634,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
@@ -10667,7 +10667,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
@@ -10733,7 +10733,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
@@ -10766,7 +10766,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
@@ -10799,7 +10799,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
@@ -10865,7 +10865,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
@@ -10898,7 +10898,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
@@ -10931,7 +10931,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H314" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H315" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="H316" t="inlineStr">
         <is>
@@ -11054,7 +11054,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H317" t="inlineStr">
         <is>
@@ -11095,7 +11095,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
@@ -11169,7 +11169,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
@@ -11202,7 +11202,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
@@ -11334,7 +11334,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
@@ -11400,7 +11400,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
@@ -11433,7 +11433,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
@@ -11466,7 +11466,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
@@ -11499,7 +11499,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
@@ -11647,7 +11647,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
@@ -11680,7 +11680,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
@@ -11713,7 +11713,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
@@ -11779,7 +11779,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
@@ -11812,7 +11812,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
@@ -11878,7 +11878,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
@@ -11911,7 +11911,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
@@ -11977,7 +11977,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
@@ -12010,7 +12010,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
@@ -12043,7 +12043,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
@@ -12076,7 +12076,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr"/>
@@ -12109,7 +12109,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr"/>
@@ -12142,7 +12142,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="H349" t="inlineStr"/>
       <c r="I349" t="inlineStr"/>
@@ -12175,7 +12175,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr"/>
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H351" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr"/>
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr"/>
@@ -12315,7 +12315,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr"/>
@@ -12348,7 +12348,7 @@
         </is>
       </c>
       <c r="G355" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr"/>
@@ -12381,7 +12381,7 @@
         </is>
       </c>
       <c r="G356" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr"/>
@@ -12414,7 +12414,7 @@
         </is>
       </c>
       <c r="G357" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr"/>
@@ -12447,7 +12447,7 @@
         </is>
       </c>
       <c r="G358" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr"/>
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="G359" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr"/>
@@ -12513,7 +12513,7 @@
         </is>
       </c>
       <c r="G360" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="G361" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr"/>
@@ -12579,7 +12579,7 @@
         </is>
       </c>
       <c r="G362" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr"/>
@@ -12612,7 +12612,7 @@
         </is>
       </c>
       <c r="G363" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr"/>
@@ -12645,7 +12645,7 @@
         </is>
       </c>
       <c r="G364" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr"/>
@@ -12678,7 +12678,7 @@
         </is>
       </c>
       <c r="G365" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr"/>
@@ -12711,7 +12711,7 @@
         </is>
       </c>
       <c r="G366" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr"/>
@@ -12744,7 +12744,7 @@
         </is>
       </c>
       <c r="G367" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="H367" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         </is>
       </c>
       <c r="G368" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr"/>
@@ -12818,7 +12818,7 @@
         </is>
       </c>
       <c r="G369" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr"/>
@@ -12851,7 +12851,7 @@
         </is>
       </c>
       <c r="G370" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr"/>
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="G371" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr"/>
@@ -12917,7 +12917,7 @@
         </is>
       </c>
       <c r="G372" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr"/>
@@ -12950,7 +12950,7 @@
         </is>
       </c>
       <c r="G373" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr"/>
@@ -12983,7 +12983,7 @@
         </is>
       </c>
       <c r="G374" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
         </is>
       </c>
       <c r="G375" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr"/>
@@ -13049,7 +13049,7 @@
         </is>
       </c>
       <c r="G376" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr"/>
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="G377" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr"/>
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="G378" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr"/>
@@ -13148,7 +13148,7 @@
         </is>
       </c>
       <c r="G379" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr"/>
@@ -13181,7 +13181,7 @@
         </is>
       </c>
       <c r="G380" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr"/>
@@ -13214,7 +13214,7 @@
         </is>
       </c>
       <c r="G381" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr"/>
@@ -13247,7 +13247,7 @@
         </is>
       </c>
       <c r="G382" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr"/>
@@ -13280,7 +13280,7 @@
         </is>
       </c>
       <c r="G383" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr"/>
@@ -13313,7 +13313,7 @@
         </is>
       </c>
       <c r="G384" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H384" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         </is>
       </c>
       <c r="G385" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="H385" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         </is>
       </c>
       <c r="G386" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr"/>
@@ -13428,7 +13428,7 @@
         </is>
       </c>
       <c r="G387" t="n">
-        <v>-1.3</v>
+        <v>-1.2</v>
       </c>
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr"/>
@@ -13461,7 +13461,7 @@
         </is>
       </c>
       <c r="G388" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr"/>
@@ -13494,7 +13494,7 @@
         </is>
       </c>
       <c r="G389" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr"/>
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="G390" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr"/>
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="G391" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr"/>
@@ -13593,7 +13593,7 @@
         </is>
       </c>
       <c r="G392" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr"/>
@@ -13626,7 +13626,7 @@
         </is>
       </c>
       <c r="G393" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr"/>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="G394" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr"/>
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="G395" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr"/>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="G396" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr"/>
@@ -13758,7 +13758,7 @@
         </is>
       </c>
       <c r="G397" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         </is>
       </c>
       <c r="G398" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr"/>
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="G399" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr"/>
@@ -13865,7 +13865,7 @@
         </is>
       </c>
       <c r="G400" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr"/>
